--- a/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-13,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-18,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-9,37</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 5,23</t>
+          <t>-32,28; 18,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -1,55</t>
+          <t>-39,43; 2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 1,69</t>
+          <t>-40,83; -5,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,13</t>
+          <t>-18,53; 26,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,87</t>
+          <t>-20,88; 18,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 2,93</t>
+          <t>-20,09; 24,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,87</t>
+          <t>-18,73; 15,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,1</t>
+          <t>-20,54; 6,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 0,42</t>
+          <t>-22,03; 10,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>-50,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,2%</t>
+          <t>-75,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-40,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>-38,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,93%</t>
+          <t>-25,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>-23,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-25,37%</t>
+          <t>-60,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-37,93%</t>
+          <t>-63,25%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 90,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-89,58; -18,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 29,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 160,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 176,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,52; 68,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 92,82</t>
+          <t>-100,0; 301,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,68; 33,38</t>
+          <t>-100,0; 238,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 7,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,56</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-3,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 11,19</t>
+          <t>-6,15; 5,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 4,76</t>
+          <t>-11,43; -1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,29</t>
+          <t>-9,1; 1,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -0,63</t>
+          <t>-3,53; 8,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -0,34</t>
+          <t>-3,62; 8,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 0,01</t>
+          <t>-7,92; 2,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 3,14</t>
+          <t>-3,45; 5,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 0,35</t>
+          <t>-5,92; 2,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -0,28</t>
+          <t>-7,75; 0,42</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>-7,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,85%</t>
+          <t>-67,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,22%</t>
+          <t>-40,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-52,02%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-48,42%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-48,38%</t>
+          <t>-35,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-38,55%</t>
+          <t>-25,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>-37,93%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 222,84</t>
+          <t>-54,04; 90,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 108,01</t>
+          <t>-89,58; -18,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 86,72</t>
+          <t>-72,99; 29,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,88; -2,82</t>
+          <t>-37,83; 160,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,73; 5,46</t>
+          <t>-38,65; 176,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 6,09</t>
+          <t>-75,52; 68,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 32,0</t>
+          <t>-33,63; 92,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 3,14</t>
+          <t>-55,68; 33,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,87; -1,19</t>
+          <t>-67,63; 7,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,17</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,69</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-18,03</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 18,19</t>
+          <t>-4,74; 8,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 2,84</t>
+          <t>-6,96; 5,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,83; -5,78</t>
+          <t>-4,87; 8,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 26,44</t>
+          <t>-9,49; 5,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 18,54</t>
+          <t>-12,82; -0,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 24,6</t>
+          <t>-8,9; 7,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 15,32</t>
+          <t>-5,06; 5,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 6,0</t>
+          <t>-8,01; 1,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 10,34</t>
+          <t>-3,76; 5,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-50,85%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-75,95%</t>
+          <t>-15,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-38,54%</t>
+          <t>-59,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-25,46%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-23,14%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-60,02%</t>
+          <t>-40,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-63,25%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,48; 219,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,49; 157,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,71; 235,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,98; 93,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,74; 11,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,1; 131,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 301,67</t>
+          <t>-46,04; 88,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 238,06</t>
+          <t>-72,22; 23,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,89; 105,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-5,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 8,18</t>
+          <t>-3,86; 11,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 5,37</t>
+          <t>-8,13; 4,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,45</t>
+          <t>-8,84; 4,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 5,64</t>
+          <t>-17,06; -0,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -0,04</t>
+          <t>-17,5; -0,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 7,23</t>
+          <t>-16,98; 0,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,3</t>
+          <t>-8,44; 3,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 1,09</t>
+          <t>-10,02; 0,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,8</t>
+          <t>-10,51; -0,28</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>-16,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>-26,22%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-52,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-59,49%</t>
+          <t>-48,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-48,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-40,78%</t>
+          <t>-38,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>-41,84%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,48; 219,35</t>
+          <t>-33,59; 222,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 157,14</t>
+          <t>-63,02; 108,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 235,9</t>
+          <t>-70,36; 86,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-65,98; 93,41</t>
+          <t>-77,88; -2,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-87,74; 11,73</t>
+          <t>-74,73; 5,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,1; 131,18</t>
+          <t>-73,91; 6,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 88,57</t>
+          <t>-52,51; 32,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,22; 23,34</t>
+          <t>-64,1; 3,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 105,56</t>
+          <t>-65,87; -1,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 18,19</t>
+          <t>-32,16; 16,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 2,84</t>
+          <t>-36,19; 4,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,83; -5,78</t>
+          <t>-43,47; -5,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 26,44</t>
+          <t>-17,23; 26,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 18,54</t>
+          <t>-23,51; 16,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 24,6</t>
+          <t>-20,23; 23,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 15,32</t>
+          <t>-19,22; 13,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 6,0</t>
+          <t>-24,04; 4,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 10,34</t>
+          <t>-22,22; 7,81</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 301,67</t>
+          <t>-100,0; 251,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 238,06</t>
+          <t>-100,0; 187,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 280,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 5,09</t>
+          <t>-14,41; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 1,38</t>
+          <t>-16,07; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,94; -5,56</t>
+          <t>-21,07; -5,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 6,14</t>
+          <t>-13,58; 6,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 4,5</t>
+          <t>-15,24; 3,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 2,3</t>
+          <t>-15,82; 2,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 3,17</t>
+          <t>-10,72; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 0,22</t>
+          <t>-11,9; 0,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -3,96</t>
+          <t>-15,68; -3,9</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 58,41</t>
+          <t>-72,14; 51,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,38; 15,28</t>
+          <t>-85,37; 27,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-96,45; -40,93</t>
+          <t>-96,57; -48,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,17; 80,0</t>
+          <t>-70,47; 88,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 61,57</t>
+          <t>-79,25; 47,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,62; 35,49</t>
+          <t>-85,01; 62,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 32,98</t>
+          <t>-60,15; 30,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,52; 9,22</t>
+          <t>-69,79; 10,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,53; -24,6</t>
+          <t>-87,41; -28,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 5,23</t>
+          <t>-6,93; 5,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -1,55</t>
+          <t>-11,33; -1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 1,69</t>
+          <t>-9,51; 1,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,13</t>
+          <t>-3,77; 8,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,87</t>
+          <t>-4,45; 8,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 2,93</t>
+          <t>-8,32; 2,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,87</t>
+          <t>-3,51; 5,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,1</t>
+          <t>-6,05; 2,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 0,42</t>
+          <t>-7,08; 0,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 90,65</t>
+          <t>-56,07; 92,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,58; -18,86</t>
+          <t>-89,34; -15,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 29,64</t>
+          <t>-74,3; 24,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 160,27</t>
+          <t>-37,83; 149,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 176,19</t>
+          <t>-41,82; 154,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,52; 68,08</t>
+          <t>-79,49; 45,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 92,82</t>
+          <t>-33,3; 84,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,68; 33,38</t>
+          <t>-57,21; 34,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 7,9</t>
+          <t>-66,13; 20,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 8,18</t>
+          <t>-4,85; 8,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 5,37</t>
+          <t>-6,94; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,45</t>
+          <t>-5,57; 7,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 5,64</t>
+          <t>-9,46; 6,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -0,04</t>
+          <t>-12,77; 0,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 7,23</t>
+          <t>-7,77; 7,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,3</t>
+          <t>-4,7; 5,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 1,09</t>
+          <t>-8,27; 0,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,8</t>
+          <t>-4,19; 5,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,48; 219,35</t>
+          <t>-53,4; 231,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 157,14</t>
+          <t>-68,92; 166,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 235,9</t>
+          <t>-55,79; 222,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,98; 93,41</t>
+          <t>-65,71; 117,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,74; 11,73</t>
+          <t>-87,99; 35,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,1; 131,18</t>
+          <t>-55,44; 134,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 88,57</t>
+          <t>-43,22; 94,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-72,22; 23,34</t>
+          <t>-72,36; 19,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 105,56</t>
+          <t>-40,45; 95,72</t>
         </is>
       </c>
     </row>
@@ -1554,42 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 4,76</t>
+          <t>-8,61; 4,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,29</t>
+          <t>-8,74; 4,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -0,63</t>
+          <t>-17,62; 0,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -0,34</t>
+          <t>-16,68; -0,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 0,01</t>
+          <t>-17,61; -0,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 3,14</t>
+          <t>-8,43; 2,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 0,35</t>
+          <t>-10,42; 0,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -0,28</t>
+          <t>-11,12; -0,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 222,84</t>
+          <t>-32,44; 197,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 108,01</t>
+          <t>-65,76; 92,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 86,72</t>
+          <t>-71,14; 92,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,88; -2,82</t>
+          <t>-77,36; 2,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,73; 5,46</t>
+          <t>-74,16; 0,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 6,09</t>
+          <t>-75,28; 3,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 32,0</t>
+          <t>-52,27; 30,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 3,14</t>
+          <t>-62,69; 5,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,87; -1,19</t>
+          <t>-65,36; 2,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,41</t>
+          <t>-3,77; 3,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -1,37</t>
+          <t>-7,57; -1,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -0,94</t>
+          <t>-7,16; -0,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,16</t>
+          <t>-6,18; 1,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -0,41</t>
+          <t>-7,98; -0,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -0,72</t>
+          <t>-8,09; -0,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,39</t>
+          <t>-4,06; 1,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -1,63</t>
+          <t>-6,65; -1,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -2,02</t>
+          <t>-6,78; -1,9</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 41,55</t>
+          <t>-33,15; 44,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -14,62</t>
+          <t>-64,69; -13,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,04; -10,55</t>
+          <t>-60,58; -8,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 11,65</t>
+          <t>-43,89; 10,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-56,74; -4,1</t>
+          <t>-55,34; -0,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,72; -5,23</t>
+          <t>-58,1; -4,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 13,27</t>
+          <t>-32,67; 13,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-52,34; -16,19</t>
+          <t>-53,38; -15,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-55,46; -21,05</t>
+          <t>-53,85; -18,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 16,27</t>
+          <t>-31,74; 17,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 4,22</t>
+          <t>-40,3; 4,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,47; -5,74</t>
+          <t>-43,81; -5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 26,96</t>
+          <t>-18,17; 27,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 16,42</t>
+          <t>-22,24; 16,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 23,08</t>
+          <t>-20,05; 25,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 13,2</t>
+          <t>-19,6; 12,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 4,18</t>
+          <t>-23,6; 3,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 7,81</t>
+          <t>-22,19; 8,17</t>
         </is>
       </c>
     </row>
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 251,67</t>
+          <t>-100,0; 236,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 187,22</t>
+          <t>-100,0; 187,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 280,3</t>
+          <t>-100,0; 301,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 4,51</t>
+          <t>-13,85; 4,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 1,61</t>
+          <t>-16,9; 1,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -5,74</t>
+          <t>-20,79; -5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 6,17</t>
+          <t>-13,07; 6,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 3,83</t>
+          <t>-15,72; 4,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 2,7</t>
+          <t>-15,72; 3,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 3,04</t>
+          <t>-10,65; 2,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 0,79</t>
+          <t>-13,08; 0,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -3,9</t>
+          <t>-16,12; -4,18</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,14; 51,08</t>
+          <t>-70,78; 53,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,37; 27,99</t>
+          <t>-82,12; 28,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-96,57; -48,66</t>
+          <t>-96,28; -40,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,47; 88,87</t>
+          <t>-68,25; 79,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 47,43</t>
+          <t>-80,81; 55,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,01; 62,78</t>
+          <t>-84,43; 63,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 30,27</t>
+          <t>-60,28; 30,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,79; 10,13</t>
+          <t>-70,99; 11,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-87,41; -28,95</t>
+          <t>-86,31; -30,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 5,42</t>
+          <t>-6,46; 5,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -1,88</t>
+          <t>-11,42; -1,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 1,3</t>
+          <t>-9,24; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,18</t>
+          <t>-3,31; 8,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 8,39</t>
+          <t>-4,11; 8,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 2,32</t>
+          <t>-8,04; 2,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,28</t>
+          <t>-3,15; 5,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,13</t>
+          <t>-5,81; 1,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,88</t>
+          <t>-7,08; 0,61</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,07; 92,78</t>
+          <t>-56,64; 93,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,34; -15,16</t>
+          <t>-90,17; -7,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,3; 24,95</t>
+          <t>-73,62; 35,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 149,22</t>
+          <t>-32,34; 173,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 154,58</t>
+          <t>-39,35; 150,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,49; 45,4</t>
+          <t>-75,87; 52,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 84,67</t>
+          <t>-31,44; 81,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,21; 34,11</t>
+          <t>-58,39; 27,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,13; 20,84</t>
+          <t>-66,08; 10,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,5</t>
+          <t>-5,18; 8,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,88</t>
+          <t>-6,79; 5,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,97</t>
+          <t>-4,85; 7,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 6,41</t>
+          <t>-9,51; 6,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,9</t>
+          <t>-12,36; 0,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 7,42</t>
+          <t>-7,4; 7,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 5,33</t>
+          <t>-4,27; 5,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 0,8</t>
+          <t>-7,63; 0,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 5,43</t>
+          <t>-4,47; 5,84</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 231,6</t>
+          <t>-53,65; 252,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,92; 166,96</t>
+          <t>-71,31; 191,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 222,68</t>
+          <t>-53,65; 219,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,71; 117,5</t>
+          <t>-66,42; 112,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,99; 35,03</t>
+          <t>-89,0; 35,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 134,97</t>
+          <t>-55,63; 139,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,22; 94,48</t>
+          <t>-42,82; 98,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 19,88</t>
+          <t>-73,05; 13,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 95,72</t>
+          <t>-40,75; 102,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 11,19</t>
+          <t>-4,11; 10,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 4,46</t>
+          <t>-7,92; 4,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 4,27</t>
+          <t>-8,41; 3,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 0,03</t>
+          <t>-17,35; -0,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -0,34</t>
+          <t>-16,34; 0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -0,03</t>
+          <t>-16,37; 0,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 2,76</t>
+          <t>-8,64; 2,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 0,19</t>
+          <t>-10,2; -0,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -0,22</t>
+          <t>-10,95; -0,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 197,1</t>
+          <t>-33,14; 209,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 92,85</t>
+          <t>-65,15; 105,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 92,53</t>
+          <t>-69,66; 70,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,36; 2,17</t>
+          <t>-77,43; 5,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,16; 0,56</t>
+          <t>-74,13; 6,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-75,28; 3,72</t>
+          <t>-73,72; 9,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 30,24</t>
+          <t>-52,04; 25,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 5,66</t>
+          <t>-63,35; 0,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 2,92</t>
+          <t>-67,07; -2,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,57</t>
+          <t>-4,11; 3,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -1,25</t>
+          <t>-7,84; -0,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -0,63</t>
+          <t>-7,66; -1,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 1,03</t>
+          <t>-6,31; 1,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -0,16</t>
+          <t>-8,06; -0,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -0,54</t>
+          <t>-8,3; -0,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,3</t>
+          <t>-3,91; 1,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -1,71</t>
+          <t>-6,57; -1,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,9</t>
+          <t>-6,6; -1,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 44,08</t>
+          <t>-33,36; 40,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-64,69; -13,9</t>
+          <t>-64,87; -10,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,58; -8,68</t>
+          <t>-62,55; -10,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 10,63</t>
+          <t>-42,78; 18,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -0,71</t>
+          <t>-56,08; -0,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-58,1; -4,58</t>
+          <t>-57,53; -5,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 13,76</t>
+          <t>-31,62; 14,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -15,64</t>
+          <t>-52,65; -17,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-53,85; -18,72</t>
+          <t>-53,96; -20,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,17</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,69</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,03</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-13,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-9,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 17,78</t>
+          <t>-10,79; 7,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 4,16</t>
+          <t>-13,26; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,81; -5,61</t>
+          <t>-14,36; 3,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 27,04</t>
+          <t>-14,67; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 16,7</t>
+          <t>-16,38; 0,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 25,18</t>
+          <t>-20,95; -6,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 12,8</t>
+          <t>-10,09; 1,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 3,92</t>
+          <t>-12,82; -1,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 8,17</t>
+          <t>-15,17; -4,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-50,85%</t>
+          <t>-17,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-75,95%</t>
+          <t>-36,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-43,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>-35,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,54%</t>
+          <t>-54,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,46%</t>
+          <t>-85,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,14%</t>
+          <t>-27,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-60,02%</t>
+          <t>-46,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-63,25%</t>
+          <t>-68,03%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,47; 92,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,99; 41,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,73; 56,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,71; 37,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,84; 15,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,22; -50,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 236,47</t>
+          <t>-59,3; 18,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 187,69</t>
+          <t>-71,93; -3,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 301,23</t>
+          <t>-85,16; -34,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,71</t>
+          <t>-3,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 4,32</t>
+          <t>-3,53; 8,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 1,52</t>
+          <t>-3,62; 8,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,79; -5,58</t>
+          <t>-7,82; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 6,17</t>
+          <t>-6,15; 5,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 4,41</t>
+          <t>-11,43; -1,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 3,47</t>
+          <t>-9,09; 1,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 2,87</t>
+          <t>-3,45; 5,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 0,56</t>
+          <t>-5,92; 2,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -4,18</t>
+          <t>-7,69; 0,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,63%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-47,91%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-83,8%</t>
+          <t>-34,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,96%</t>
+          <t>-7,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-36,59%</t>
+          <t>-67,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,92%</t>
+          <t>-39,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-28,19%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-42,8%</t>
+          <t>-25,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-67,83%</t>
+          <t>-36,86%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 53,53</t>
+          <t>-37,83; 160,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,12; 28,01</t>
+          <t>-38,65; 176,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-96,28; -40,09</t>
+          <t>-75,09; 68,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 79,05</t>
+          <t>-54,04; 90,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,81; 55,85</t>
+          <t>-89,58; -18,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,43; 63,11</t>
+          <t>-72,46; 35,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 30,82</t>
+          <t>-33,63; 92,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,99; 11,13</t>
+          <t>-55,68; 33,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,31; -30,51</t>
+          <t>-67,33; 10,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,44</t>
+          <t>-9,49; 5,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -1,58</t>
+          <t>-12,82; -0,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 1,55</t>
+          <t>-9,03; 7,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 8,59</t>
+          <t>-4,74; 8,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 8,49</t>
+          <t>-6,96; 5,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 2,49</t>
+          <t>-5,15; 7,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 5,1</t>
+          <t>-5,06; 5,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 1,62</t>
+          <t>-8,01; 1,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,61</t>
+          <t>-4,07; 5,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-67,2%</t>
+          <t>-59,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,31%</t>
+          <t>-6,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>-15,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,93%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,37%</t>
+          <t>-40,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-37,93%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 93,75</t>
+          <t>-65,98; 93,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-90,17; -7,04</t>
+          <t>-87,74; 11,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,62; 35,89</t>
+          <t>-62,16; 125,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 173,35</t>
+          <t>-52,48; 219,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 150,44</t>
+          <t>-70,49; 157,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 52,77</t>
+          <t>-52,49; 219,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 81,49</t>
+          <t>-46,04; 88,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 27,07</t>
+          <t>-72,22; 23,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,08; 10,92</t>
+          <t>-40,22; 97,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-5,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 8,83</t>
+          <t>-17,06; -0,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 5,64</t>
+          <t>-17,5; -0,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 7,86</t>
+          <t>-17,09; -0,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 6,31</t>
+          <t>-3,86; 11,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 0,44</t>
+          <t>-8,13; 4,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 7,34</t>
+          <t>-9,06; 3,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 5,59</t>
+          <t>-8,44; 3,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 0,58</t>
+          <t>-10,02; 0,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,84</t>
+          <t>-10,77; -0,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>-52,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>-48,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>-49,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-59,49%</t>
+          <t>-16,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-29,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,78%</t>
+          <t>-38,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>-44,0%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 252,52</t>
+          <t>-77,88; -2,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,31; 191,53</t>
+          <t>-74,73; 5,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 219,9</t>
+          <t>-75,02; 0,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 112,83</t>
+          <t>-33,59; 222,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-89,0; 35,14</t>
+          <t>-63,02; 108,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 139,36</t>
+          <t>-71,98; 78,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 98,29</t>
+          <t>-52,51; 32,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-73,05; 13,67</t>
+          <t>-64,1; 3,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 102,31</t>
+          <t>-66,74; -4,69</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-8,56</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-4,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 10,42</t>
+          <t>-6,7; 1,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 4,72</t>
+          <t>-7,99; -0,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 3,34</t>
+          <t>-8,38; -0,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,35; -0,1</t>
+          <t>-3,88; 3,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 0,59</t>
+          <t>-7,89; -1,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 0,21</t>
+          <t>-7,92; -1,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 2,54</t>
+          <t>-3,82; 1,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -0,06</t>
+          <t>-6,61; -1,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -0,68</t>
+          <t>-7,05; -2,2</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>-20,81%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-16,85%</t>
+          <t>-33,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-26,22%</t>
+          <t>-36,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-52,02%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-48,42%</t>
+          <t>-43,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-48,38%</t>
+          <t>-42,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-38,55%</t>
+          <t>-37,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>-40,13%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 209,49</t>
+          <t>-46,71; 11,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,15; 105,72</t>
+          <t>-56,74; -4,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 70,04</t>
+          <t>-57,5; -5,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,43; 5,17</t>
+          <t>-32,19; 41,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,13; 6,6</t>
+          <t>-64,08; -14,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,72; 9,11</t>
+          <t>-62,67; -12,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 25,93</t>
+          <t>-30,64; 13,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 0,13</t>
+          <t>-52,34; -16,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -2,62</t>
+          <t>-56,43; -22,85</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-4,34</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,09</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-4,19</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 3,31</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; -0,99</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-7,66; -1,1</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 1,63</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; -0,47</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -0,62</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 1,42</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; -1,63</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; -1,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-1,37%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-43,3%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-40,85%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-20,81%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-33,16%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-36,35%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-11,91%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-37,71%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-38,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-33,36; 40,59</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-64,87; -10,43</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-62,55; -10,55</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-42,78; 18,48</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-56,08; -0,76</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-57,53; -5,18</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-31,62; 14,38</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-52,65; -17,2</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-53,96; -20,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
